--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="45">
   <si>
     <t>TestCase Name</t>
   </si>

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -972,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="45">
   <si>
     <t>TestCase Name</t>
   </si>

--- a/src/test/resources/VtigerCRMTestData.xlsx
+++ b/src/test/resources/VtigerCRMTestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
   <si>
     <t>TestCase Name</t>
   </si>
